--- a/Design/DataTable/MonsterInfo.xlsx
+++ b/Design/DataTable/MonsterInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A625A903-D7B3-4926-BA23-07088AED1B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBBB0C1-885A-4C7C-ABF6-DFCA8DD82517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2610" windowWidth="21600" windowHeight="11355" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Monster" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>;공격 속도</t>
   </si>
   <si>
-    <t>;공격 범위</t>
-  </si>
-  <si>
     <t>;스플레쉬</t>
   </si>
   <si>
@@ -112,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackScale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReactionRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,6 +222,14 @@
   </si>
   <si>
     <t>asset&lt;UTexturte2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplashRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;스플레쉬 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,17 +669,16 @@
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="7.75" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.375" customWidth="1"/>
     <col min="16" max="16" width="47.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -708,72 +708,72 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -790,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -823,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -840,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -890,10 +890,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -923,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -940,10 +940,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -973,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -990,10 +990,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1008,10 +1008,10 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1040,10 +1040,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1058,10 +1058,10 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1090,10 +1090,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>50</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1148,13 +1148,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -1163,13 +1163,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1191,13 +1191,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5">
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,13 +1205,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1225,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1253,7 +1253,7 @@
         <v>99</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1266,58 +1266,58 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/MonsterInfo.xlsx
+++ b/Design/DataTable/MonsterInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBBB0C1-885A-4C7C-ABF6-DFCA8DD82517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528592A5-1B9F-49EB-9ED4-6C9D388B74AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Monster" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,28 @@
   </si>
   <si>
     <t>;스플레쉬 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">;도착 지점에 도착한 경우 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저 HP 감소량</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +272,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -653,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,10 +704,11 @@
     <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9.375" customWidth="1"/>
-    <col min="16" max="16" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -723,10 +755,13 @@
         <v>38</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -773,10 +808,13 @@
         <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -822,11 +860,14 @@
       <c r="O3">
         <v>5</v>
       </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -872,11 +913,14 @@
       <c r="O4">
         <v>5</v>
       </c>
-      <c r="P4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -922,11 +966,14 @@
       <c r="O5">
         <v>8</v>
       </c>
-      <c r="P5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -972,11 +1019,14 @@
       <c r="O6">
         <v>8</v>
       </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1022,11 +1072,14 @@
       <c r="O7">
         <v>12</v>
       </c>
-      <c r="P7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1072,11 +1125,14 @@
       <c r="O8">
         <v>12</v>
       </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1122,7 +1178,10 @@
       <c r="O9">
         <v>50</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1134,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1313,10 +1372,18 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
